--- a/mcmaster_excel/Pan_Head_Screws_with_Flat_and_Split_Lock_Washer.xlsx
+++ b/mcmaster_excel/Pan_Head_Screws_with_Flat_and_Split_Lock_Washer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,236 +434,142 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Head Ht.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>OD</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Thick.</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Split LockWasher Thick.</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr"/>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3/16"</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0.219"</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.080"</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.380"</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.045"</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.062"</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>No. 1</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>ASME B18.13</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>95092A631</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>$7.39</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>4-40</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
+          <t>Flat Washer</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>Lg.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Threading</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.219"</t>
+          <t>HeadDia.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.080"</t>
+          <t>Head Ht.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.375"</t>
+          <t>OD</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.040"</t>
+          <t>Thick.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.062"</t>
+          <t>Split LockWasher Thick.</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No. 1</t>
+          <t>DriveSize</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>70,000</t>
+          <t>TensileStrength, psi</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>ASME B18.13</t>
+          <t>Specifications Met</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>95092A316</t>
-        </is>
-      </c>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>14.66</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>4-40</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
+          <t>Pkg.</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -683,12 +589,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.375"</t>
+          <t>0.380"</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.040"</t>
+          <t>0.045"</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -718,12 +624,12 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>95092A320</t>
+          <t>95092A631</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>14.74</t>
+          <t>$7.39</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -740,7 +646,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -795,12 +701,12 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>95092A324</t>
+          <t>95092A316</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>14.78</t>
+          <t>14.66</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -817,7 +723,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -872,12 +778,12 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>95092A328</t>
+          <t>95092A320</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>14.86</t>
+          <t>14.74</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -894,7 +800,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -914,12 +820,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.380"</t>
+          <t>0.375"</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.045"</t>
+          <t>0.040"</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -949,12 +855,12 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>95092A632</t>
+          <t>95092A324</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>7.66</t>
+          <t>14.78</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -971,7 +877,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -981,17 +887,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.270"</t>
+          <t>0.219"</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.097"</t>
+          <t>0.080"</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.437"</t>
+          <t>0.375"</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1001,12 +907,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.068"</t>
+          <t>0.062"</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 1</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1026,17 +932,17 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>95092A410</t>
+          <t>95092A328</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>17.64</t>
+          <t>14.86</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>6-32</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1048,7 +954,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1058,32 +964,32 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.270"</t>
+          <t>0.219"</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.097"</t>
+          <t>0.080"</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.437"</t>
+          <t>0.380"</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.040"</t>
+          <t>0.045"</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.068"</t>
+          <t>0.062"</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 1</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1103,17 +1009,17 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>95092A414</t>
+          <t>95092A632</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>17.68</t>
+          <t>7.66</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>6-32</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1125,7 +1031,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1180,12 +1086,12 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>95092A418</t>
+          <t>95092A410</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>17.75</t>
+          <t>17.64</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1202,7 +1108,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1257,12 +1163,12 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>95092A422</t>
+          <t>95092A414</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>17.87</t>
+          <t>17.68</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1279,7 +1185,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1299,12 +1205,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.442"</t>
+          <t>0.437"</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.045"</t>
+          <t>0.040"</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1334,12 +1240,12 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>95092A633</t>
+          <t>95092A418</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>7.98</t>
+          <t>17.75</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1356,7 +1262,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1376,12 +1282,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.442"</t>
+          <t>0.437"</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.045"</t>
+          <t>0.040"</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1411,12 +1317,12 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>95092A634</t>
+          <t>95092A422</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>8.49</t>
+          <t>17.87</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1433,7 +1339,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1443,27 +1349,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.322"</t>
+          <t>0.270"</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.115"</t>
+          <t>0.097"</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.500"</t>
+          <t>0.442"</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.040"</t>
+          <t>0.045"</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.062"</t>
+          <t>0.068"</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1488,17 +1394,17 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>95092A512</t>
+          <t>95092A633</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>15.06</t>
+          <t>7.98</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1510,7 +1416,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1520,27 +1426,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.322"</t>
+          <t>0.270"</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.115"</t>
+          <t>0.097"</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.500"</t>
+          <t>0.442"</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.040"</t>
+          <t>0.045"</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.062"</t>
+          <t>0.068"</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1565,17 +1471,17 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>95092A516</t>
+          <t>95092A634</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>15.13</t>
+          <t>8.49</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1587,7 +1493,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1642,12 +1548,12 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>95092A520</t>
+          <t>95092A512</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>15.21</t>
+          <t>15.06</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1664,7 +1570,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1719,12 +1625,12 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>95092A524</t>
+          <t>95092A516</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>15.37</t>
+          <t>15.13</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1741,7 +1647,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1761,17 +1667,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.505"</t>
+          <t>0.500"</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.045"</t>
+          <t>0.040"</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.068"</t>
+          <t>0.062"</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1796,12 +1702,12 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>95092A635</t>
+          <t>95092A520</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>8.56</t>
+          <t>15.21</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1818,7 +1724,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1838,17 +1744,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.505"</t>
+          <t>0.500"</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.045"</t>
+          <t>0.040"</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.068"</t>
+          <t>0.062"</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1873,12 +1779,12 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>95092A636</t>
+          <t>95092A524</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>9.15</t>
+          <t>15.37</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1895,7 +1801,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1905,27 +1811,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.373"</t>
+          <t>0.322"</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.133"</t>
+          <t>0.115"</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.563"</t>
+          <t>0.505"</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.040"</t>
+          <t>0.045"</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.094"</t>
+          <t>0.068"</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1950,17 +1856,17 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>95092A615</t>
+          <t>95092A635</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>16.74</t>
+          <t>8.56</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1972,7 +1878,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1982,27 +1888,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.373"</t>
+          <t>0.322"</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.133"</t>
+          <t>0.115"</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.563"</t>
+          <t>0.505"</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.040"</t>
+          <t>0.045"</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.094"</t>
+          <t>0.068"</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -2027,17 +1933,17 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>95092A619</t>
+          <t>95092A636</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>16.86</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -2049,7 +1955,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2104,12 +2010,12 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>95092A623</t>
+          <t>95092A615</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>17.05</t>
+          <t>16.74</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2126,7 +2032,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2181,12 +2087,12 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>95092A627</t>
+          <t>95092A619</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>17.48</t>
+          <t>16.86</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2203,75 +2109,229 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0.373"</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.133"</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0.563"</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.040"</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.094"</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>No. 2</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ASME B18.13</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>95092A623</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>17.05</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>10-32</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>3/4"</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0.373"</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.133"</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0.563"</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.040"</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.094"</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>No. 2</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ASME B18.13</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>95092A627</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>17.48</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>10-32</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>1"</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>Fully Threaded</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>0.373"</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>0.133"</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>0.568"</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>0.045"</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>0.094"</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>No. 2</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>70,000</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>ASME B18.13</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>95092A638</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>10.44</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="N26" t="inlineStr">
         <is>
           <t>10-32</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
         </is>
